--- a/clean/name/10511C.xlsx
+++ b/clean/name/10511C.xlsx
@@ -2045,6 +2045,11 @@
           <t>digoxin level</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Digoxin</t>
+        </is>
+      </c>
       <c r="D96">
         <v>6</v>
       </c>
